--- a/medicine/Sexualité et sexologie/Emmanuelle_(série_de_films)/Emmanuelle_(série_de_films).xlsx
+++ b/medicine/Sexualité et sexologie/Emmanuelle_(série_de_films)/Emmanuelle_(série_de_films).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emmanuelle_(s%C3%A9rie_de_films)</t>
+          <t>Emmanuelle_(série_de_films)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Emmanuelle (ou Emanuelle dans certaines versions) est une série de films et téléfilms érotiques principalement français dont le personnage principal est inspiré du personnage créé par Emmanuelle Arsan dans son roman Emmanuelle paru en 1959.
@@ -488,7 +500,7 @@
 Dans les films suivants, le rôle est d'abord tenu par Sylvia Kristel puis par différentes actrices.
 En 1975, alors que se tourne Emmanuelle 2, un producteur italien, Mario Mariani, essaye d'exploiter le filon en faisant d'une actrice de second plan du film l'héroïne d'une nouvelle série Black Emanuelle (Emanuelle nera). La production française refuse cette exploitation, et Mariani se distingue en supprimant un m du nom initial. La série italienne des Black Emanuelle commence alors avec Laura Gemser, une actrice métisse d'origine indonésienne qui était apparue dans un petit rôle de masseuse dans Emmanuelle 2.
 La série est par ailleurs parodiée en 1978 avec le dernier film de la série britannique Carry On : Carry On Emmannuelle (avec deux n) avec, dans les rôles principaux, Suzanne Danielle et Kenneth Williams.
-De nombreux autres productions ont repris le personnage d'Emmanuelle, dont une série télévisée de science-fiction. Le rôle est notamment joué par Krista Allen dans plusieurs téléfilms, mais ils n'ont que peu, voire plus de liens avec le personnage d'Emmanuelle Arsan. La plupart de ces épisodes, de qualité de plus en plus médiocre[1], sont produits par Alain Siritzky.
+De nombreux autres productions ont repris le personnage d'Emmanuelle, dont une série télévisée de science-fiction. Le rôle est notamment joué par Krista Allen dans plusieurs téléfilms, mais ils n'ont que peu, voire plus de liens avec le personnage d'Emmanuelle Arsan. La plupart de ces épisodes, de qualité de plus en plus médiocre, sont produits par Alain Siritzky.
 Une nouvelle adaptation cinématographique est annoncée en 2024 : Emmanuelle, réalisé par Audrey Diwan, avec Noémie Merlant dans le rôle-titre.
 </t>
         </is>
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emmanuelle_(s%C3%A9rie_de_films)</t>
+          <t>Emmanuelle_(série_de_films)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Principales actrices ayant tenu le rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Voir également la catégorie « Actrice ayant incarné Emmanuelle »
 Erika Blanc
@@ -532,7 +546,7 @@
 Marcela Walerstein pour une série de téléfilms réalisée pour la chaîne française M6 par Francis Leroi en 1993
 Krista Allen
 Holly Sampson depuis 2000 dans quelques téléfilms
-Brittany Joy[2]
+Brittany Joy
 Natasja Vermeer
 Noémie Merlant dans Emmanuelle</t>
         </is>
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emmanuelle_(s%C3%A9rie_de_films)</t>
+          <t>Emmanuelle_(série_de_films)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,8 +578,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Films et téléfilms français
-1974 : Emmanuelle de Just Jaeckin
+          <t>Films et téléfilms français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1974 : Emmanuelle de Just Jaeckin
 1975 : Emmanuelle l'antivierge de Francis Giacobetti
 1977 : Good-bye, Emmanuelle de François Leterrier
 1984 : Emmanuelle 4 de Francis Leroi et Iris Letans
@@ -579,9 +598,43 @@
 1993 : L'Amour d'Emmanuelle (téléfilm) de Francis Leroi
 1993 : Le Parfum d'Emmanuelle (téléfilm) de Francis Leroi
 1993 : Magique Emmanuelle (téléfilm) de Francis Leroi
-2024 : Emmanuelle d'Audrey Diwan
-Films et téléfilms italiens
-Emanuelle y est souvent jouée par Laura Gemser.
+2024 : Emmanuelle d'Audrey Diwan</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(série_de_films)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(s%C3%A9rie_de_films)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie sélective</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Films et téléfilms italiens</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emanuelle y est souvent jouée par Laura Gemser.
 1969 : Moi, Emmanuelle (Io, Emmanuelle), film italien de Cesare Canevari.
 1975 : Emmanuelle et Françoise (Emanuelle e Françoise) de Joe D'Amato
 1975 : Black Emanuelle en Afrique (Emanuelle nera) de Bitto Albertini
@@ -597,73 +650,296 @@
 1982 : Pénitencier de femmes (Violenza in un carcere femminile) de Bruno Mattei
 1983 : Révolte au pénitencier de filles (Emanuelle fuga dall'inferno) de Bruno Mattei
 D'autres longs métrages avec Laura Gemser, comme le film allemand Die Todesgöttin des Liebescamps (1981) de Christian Anders, ont été abusivement renommés Emanuelle dans certaines langues lors de l'exportation. Cet exemple est titré Camp d'amour, ou parfois L'Amour au club, en français, mais Divine Emanuelle à l'occasion de l'édition vidéo en Australie et aux États-Unis.
-Vidéos et téléfilms américains
-2003 : Emmanuelle à Rio (Emmanuelle in Rio) de Kevin Alber (téléfilm)
-Série Emmanuelle in Space
-Emmanuelle: First Contact, également connu sous le titre Queen of the Galaxy (1994)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(série_de_films)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(s%C3%A9rie_de_films)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie sélective</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vidéos et téléfilms américains</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2003 : Emmanuelle à Rio (Emmanuelle in Rio) de Kevin Alber (téléfilm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(série_de_films)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(s%C3%A9rie_de_films)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie sélective</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vidéos et téléfilms américains</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Emmanuelle in Space</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Emmanuelle: First Contact, également connu sous le titre Queen of the Galaxy (1994)
 Emmanuelle 2: A World of Desire (1994)
 Emmanuelle 3: A Lesson in Love (1994)
 Emmanuelle 4: Concealed Fantasy (1994)
 Emmanuelle 5: A Time to Dream (1994)
 Emmanuelle 6: One Final Fling (1994)
-Emmanuelle 7: The Meaning of Love (1994)
-Série Emmanuelle 2000
-Emmanuelle 2000: Being Emmanuelle (2000)
+Emmanuelle 7: The Meaning of Love (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(série_de_films)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(s%C3%A9rie_de_films)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie sélective</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vidéos et téléfilms américains</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Emmanuelle 2000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Emmanuelle 2000: Being Emmanuelle (2000)
 Emmanuelle 2000: Emmanuelle and the Art of Love (2000)
 Emmanuelle 2000: Emmanuelle in Paradise (2000)
 Emmanuelle 2000: Jewel of Emmanuelle (2000)
 Emmanuelle 2000: Intimate Encounters (2000)
 Emmanuelle 2000: Emmanuelle's Sensual Pleasure (2000)
 Emmanuelle 2000 (2001)
-Emmanuelle 2000 Emmanuelle Pie (2002)
-Série Emmanuelle Private Collection
-Emmanuelle Private Collection: Sex Goddess (2004)
+Emmanuelle 2000 Emmanuelle Pie (2002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(série_de_films)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(s%C3%A9rie_de_films)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie sélective</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vidéos et téléfilms américains</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Emmanuelle Private Collection</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Emmanuelle Private Collection: Sex Goddess (2004)
 Emmanuelle Private Collection: Emmanuelle vs. Dracula (2004)
 Emmanuelle Private Collection: Sex Talk (2004)
 Emmanuelle Private Collection: The Sex Lives of Ghosts (2004)
 Emmanuelle Private Collection: Sexual Spells (2004)
 Emmanuelle Private Collection: The Art of Ecstasy (2006)
 Emmanuelle Private Collection: Jesse's Secrets Desires (2006)
-Emmanuelle Tango (2006)
-Série Emmanuelle Through Time
-Emmanuelle Through Time: Emmanuelle's Skin City  (2011)
+Emmanuelle Tango (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(série_de_films)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(s%C3%A9rie_de_films)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie sélective</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vidéos et téléfilms américains</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Emmanuelle Through Time</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Emmanuelle Through Time: Emmanuelle's Skin City  (2011)
 Emmanuelle Through Time: Emmanuelle's Sexy Bite (2011)
 Emmanuelle Through Time: Sex, Chocolate &amp; Emmanuelle  (2011)
 Emmanuelle Through Time: Rod Steele 0014 &amp; Naked Agent 0069  (2011)
 Emmanuelle Through Time: Emmanuelle's Supernatural Activities  (2011)
 Emmanuelle Through Time: Emmanuelle's Sex Tales  (2011)
 Emmanuelle Through Time: Emmanuelle's Forbidden Pleasures  (2011)
-Emmanuelle in Wonderland (2012)
-Documentaire télévisé anglais
-Emmanuelle: A Hard Look (2000) d'Alex Cox</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Emmanuelle_(s%C3%A9rie_de_films)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(s%C3%A9rie_de_films)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Emmanuelle in Wonderland (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(série_de_films)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(s%C3%A9rie_de_films)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie sélective</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Documentaire télévisé anglais</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Emmanuelle: A Hard Look (2000) d'Alex Cox</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(série_de_films)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(s%C3%A9rie_de_films)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Autour du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup de films, érotiques le plus souvent, ont été renommés lors de l'exportation ou tout simplement pour profiter de la notoriété de la franchise. Ce fut le cas, en 1972, du film français Je suis frigide... pourquoi ? de Max Pécas, renommé dans la version allemande Emanuela. Im Teufelskreis der Leidenschaft (littéralement « Emanuelle, dans le cercle vicieux de la passion ») ainsi que du film français La Marge de Walerian Borowczyk, également distribué sous le titre Emmanuelle 77.
 </t>
